--- a/files/lista_ramais_gerador_html.xlsx
+++ b/files/lista_ramais_gerador_html.xlsx
@@ -1,62 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bribeiro\Documents\GitHub\ramais\files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCC9C40-910E-446E-9E16-F57EBC8D2B74}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9465" xr2:uid="{138DB727-EC8C-4BCD-B684-5FF20F59BD2C}"/>
+    <workbookView windowWidth="20490" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+  <si>
+    <t>Ramal</t>
+  </si>
+  <si>
+    <t>Colaborador/Local</t>
+  </si>
+  <si>
+    <t>Grupo</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>HTML PAR IMPAR</t>
+  </si>
+  <si>
+    <t>Bruno Ribeiro</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>Murilo Cecchini</t>
+  </si>
   <si>
     <t>Renato Ribas</t>
   </si>
   <si>
-    <t>Bruno Ribeiro</t>
-  </si>
-  <si>
-    <t>Murilo Cecchini</t>
-  </si>
-  <si>
-    <t>Ramal</t>
-  </si>
-  <si>
-    <t>Grupo</t>
-  </si>
-  <si>
-    <t>TI</t>
-  </si>
-  <si>
-    <t>HTML</t>
-  </si>
-  <si>
-    <t>Colaborador/Local</t>
-  </si>
-  <si>
     <t>Vinicius Frassatto</t>
   </si>
   <si>
@@ -69,19 +55,31 @@
     <t>Controladoria</t>
   </si>
   <si>
-    <t>HTML PAR IMPAR</t>
+    <t>clecio</t>
+  </si>
+  <si>
+    <t>cpd</t>
+  </si>
+  <si>
+    <t>te2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -89,19 +87,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -109,25 +444,311 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="40% - Ênfase 4" xfId="3" builtinId="43"/>
+    <cellStyle name="Porcentagem" xfId="4" builtinId="5"/>
+    <cellStyle name="Célula Vinculada" xfId="5" builtinId="24"/>
+    <cellStyle name="Célula de Verificação" xfId="6" builtinId="23"/>
+    <cellStyle name="Moeda [0]" xfId="7" builtinId="7"/>
+    <cellStyle name="20% - Ênfase 3" xfId="8" builtinId="38"/>
+    <cellStyle name="Moeda" xfId="9" builtinId="4"/>
+    <cellStyle name="Hyperlink seguido" xfId="10" builtinId="9"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8"/>
+    <cellStyle name="40% - Ênfase 2" xfId="12" builtinId="35"/>
+    <cellStyle name="Observação" xfId="13" builtinId="10"/>
+    <cellStyle name="40% - Ênfase 6" xfId="14" builtinId="51"/>
+    <cellStyle name="Texto de Aviso" xfId="15" builtinId="11"/>
+    <cellStyle name="Título" xfId="16" builtinId="15"/>
+    <cellStyle name="Texto Explicativo" xfId="17" builtinId="53"/>
+    <cellStyle name="Ênfase 3" xfId="18" builtinId="37"/>
+    <cellStyle name="Título 1" xfId="19" builtinId="16"/>
+    <cellStyle name="Ênfase 4" xfId="20" builtinId="41"/>
+    <cellStyle name="Título 2" xfId="21" builtinId="17"/>
+    <cellStyle name="Ênfase 5" xfId="22" builtinId="45"/>
+    <cellStyle name="Título 3" xfId="23" builtinId="18"/>
+    <cellStyle name="Ênfase 6" xfId="24" builtinId="49"/>
+    <cellStyle name="Título 4" xfId="25" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="26" builtinId="20"/>
+    <cellStyle name="Saída" xfId="27" builtinId="21"/>
+    <cellStyle name="Cálculo" xfId="28" builtinId="22"/>
+    <cellStyle name="Total" xfId="29" builtinId="25"/>
+    <cellStyle name="40% - Ênfase 1" xfId="30" builtinId="31"/>
+    <cellStyle name="Bom" xfId="31" builtinId="26"/>
+    <cellStyle name="Ruim" xfId="32" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="33" builtinId="28"/>
+    <cellStyle name="20% - Ênfase 5" xfId="34" builtinId="46"/>
+    <cellStyle name="Ênfase 1" xfId="35" builtinId="29"/>
+    <cellStyle name="20% - Ênfase 1" xfId="36" builtinId="30"/>
+    <cellStyle name="60% - Ênfase 1" xfId="37" builtinId="32"/>
+    <cellStyle name="20% - Ênfase 6" xfId="38" builtinId="50"/>
+    <cellStyle name="Ênfase 2" xfId="39" builtinId="33"/>
+    <cellStyle name="20% - Ênfase 2" xfId="40" builtinId="34"/>
+    <cellStyle name="60% - Ênfase 2" xfId="41" builtinId="36"/>
+    <cellStyle name="40% - Ênfase 3" xfId="42" builtinId="39"/>
+    <cellStyle name="60% - Ênfase 3" xfId="43" builtinId="40"/>
+    <cellStyle name="20% - Ênfase 4" xfId="44" builtinId="42"/>
+    <cellStyle name="60% - Ênfase 4" xfId="45" builtinId="44"/>
+    <cellStyle name="40% - Ênfase 5" xfId="46" builtinId="47"/>
+    <cellStyle name="60% - Ênfase 5" xfId="47" builtinId="48"/>
+    <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -176,7 +797,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -209,26 +830,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -261,23 +865,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -419,150 +1006,275 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47ED5B36-364C-41CC-8CDF-123DF69D3BA8}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="66" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="84.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.42857142857143" customWidth="1"/>
+    <col min="2" max="2" width="17.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="13.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="66" customWidth="1"/>
+    <col min="5" max="5" width="84.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>62617</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="str">
         <f>"&lt;tr&gt;&lt;td&gt;"&amp;A2&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B2&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C2&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr&gt;&lt;td&gt;62617&lt;/td&gt;&lt;td&gt;Bruno Ribeiro&lt;/td&gt;&lt;td&gt;TI&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="E2" t="str">
-        <f>IF(ISEVEN(ROW(A2)),
-"&lt;tr&gt;&lt;td&gt;"&amp;A2&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B2&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C2&amp;"&lt;/td&gt;&lt;/tr&gt;",
-"&lt;tr class=""table-active""&gt;&lt;td&gt;"&amp;A2&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B2&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C2&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <f>IF(ISEVEN(ROW(A2)),"&lt;tr&gt;&lt;td&gt;"&amp;A2&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B2&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C2&amp;"&lt;/td&gt;&lt;/tr&gt;","&lt;tr class=""table-active""&gt;&lt;td&gt;"&amp;A2&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B2&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C2&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
         <v>&lt;tr&gt;&lt;td&gt;62617&lt;/td&gt;&lt;td&gt;Bruno Ribeiro&lt;/td&gt;&lt;td&gt;TI&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>62618</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D6" si="0">"&lt;tr&gt;&lt;td&gt;"&amp;A3&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B3&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C3&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <f>"&lt;tr&gt;&lt;td&gt;"&amp;A3&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B3&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C3&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr&gt;&lt;td&gt;62618&lt;/td&gt;&lt;td&gt;Murilo Cecchini&lt;/td&gt;&lt;td&gt;TI&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E6" si="1">IF(ISEVEN(ROW(A3)),
-"&lt;tr&gt;&lt;td&gt;"&amp;A3&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B3&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C3&amp;"&lt;/td&gt;&lt;/tr&gt;",
-"&lt;tr class=""table-active""&gt;&lt;td&gt;"&amp;A3&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B3&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C3&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <f>IF(ISEVEN(ROW(A3)),"&lt;tr&gt;&lt;td&gt;"&amp;A3&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B3&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C3&amp;"&lt;/td&gt;&lt;/tr&gt;","&lt;tr class=""table-active""&gt;&lt;td&gt;"&amp;A3&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B3&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C3&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
         <v>&lt;tr class="table-active"&gt;&lt;td&gt;62618&lt;/td&gt;&lt;td&gt;Murilo Cecchini&lt;/td&gt;&lt;td&gt;TI&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>62614</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" si="0"/>
+        <f>"&lt;tr&gt;&lt;td&gt;"&amp;A4&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B4&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C4&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
         <v>&lt;tr&gt;&lt;td&gt;62614&lt;/td&gt;&lt;td&gt;Renato Ribas&lt;/td&gt;&lt;td&gt;TI&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISEVEN(ROW(A4)),"&lt;tr&gt;&lt;td&gt;"&amp;A4&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B4&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C4&amp;"&lt;/td&gt;&lt;/tr&gt;","&lt;tr class=""table-active""&gt;&lt;td&gt;"&amp;A4&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B4&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C4&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
         <v>&lt;tr&gt;&lt;td&gt;62614&lt;/td&gt;&lt;td&gt;Renato Ribas&lt;/td&gt;&lt;td&gt;TI&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>62619</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="str">
+        <f>"&lt;tr&gt;&lt;td&gt;"&amp;A5&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B5&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C5&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;62619&lt;/td&gt;&lt;td&gt;Vinicius Frassatto&lt;/td&gt;&lt;td&gt;Financeiro&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="E5" t="str">
+        <f>IF(ISEVEN(ROW(A5)),"&lt;tr&gt;&lt;td&gt;"&amp;A5&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B5&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C5&amp;"&lt;/td&gt;&lt;/tr&gt;","&lt;tr class=""table-active""&gt;&lt;td&gt;"&amp;A5&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B5&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C5&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v>&lt;tr class="table-active"&gt;&lt;td&gt;62619&lt;/td&gt;&lt;td&gt;Vinicius Frassatto&lt;/td&gt;&lt;td&gt;Financeiro&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>62614</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" ref="D6:D12" si="0">"&lt;tr&gt;&lt;td&gt;"&amp;A6&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B6&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C6&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;62614&lt;/td&gt;&lt;td&gt;Cátia Luz&lt;/td&gt;&lt;td&gt;Controladoria&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" ref="E6:E12" si="1">IF(ISEVEN(ROW(A6)),"&lt;tr&gt;&lt;td&gt;"&amp;A6&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B6&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C6&amp;"&lt;/td&gt;&lt;/tr&gt;","&lt;tr class=""table-active""&gt;&lt;td&gt;"&amp;A6&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B6&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C6&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v>&lt;tr&gt;&lt;td&gt;62614&lt;/td&gt;&lt;td&gt;Cátia Luz&lt;/td&gt;&lt;td&gt;Controladoria&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>62615</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;tr&gt;&lt;td&gt;62619&lt;/td&gt;&lt;td&gt;Vinicius Frassatto&lt;/td&gt;&lt;td&gt;Financeiro&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="E5" t="str">
+        <v>&lt;tr&gt;&lt;td&gt;62615&lt;/td&gt;&lt;td&gt;Cátia Luz&lt;/td&gt;&lt;td&gt;Controladoria&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="E7" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr class="table-active"&gt;&lt;td&gt;62619&lt;/td&gt;&lt;td&gt;Vinicius Frassatto&lt;/td&gt;&lt;td&gt;Financeiro&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr class="table-active"&gt;&lt;td&gt;62615&lt;/td&gt;&lt;td&gt;Cátia Luz&lt;/td&gt;&lt;td&gt;Controladoria&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>62613</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>62616</v>
+      </c>
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="str">
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;tr&gt;&lt;td&gt;62613&lt;/td&gt;&lt;td&gt;Cátia Luz&lt;/td&gt;&lt;td&gt;Controladoria&lt;/td&gt;&lt;/tr&gt;</v>
-      </c>
-      <c r="E6" t="str">
+        <v>&lt;tr&gt;&lt;td&gt;62616&lt;/td&gt;&lt;td&gt;Cátia Luz&lt;/td&gt;&lt;td&gt;Controladoria&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="E8" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;tr&gt;&lt;td&gt;62613&lt;/td&gt;&lt;td&gt;Cátia Luz&lt;/td&gt;&lt;td&gt;Controladoria&lt;/td&gt;&lt;/tr&gt;</v>
+        <v>&lt;tr&gt;&lt;td&gt;62616&lt;/td&gt;&lt;td&gt;Cátia Luz&lt;/td&gt;&lt;td&gt;Controladoria&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>62617</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;62617&lt;/td&gt;&lt;td&gt;Cátia Luz&lt;/td&gt;&lt;td&gt;Controladoria&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr class="table-active"&gt;&lt;td&gt;62617&lt;/td&gt;&lt;td&gt;Cátia Luz&lt;/td&gt;&lt;td&gt;Controladoria&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>62618</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;62618&lt;/td&gt;&lt;td&gt;Cátia Luz&lt;/td&gt;&lt;td&gt;Controladoria&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;62618&lt;/td&gt;&lt;td&gt;Cátia Luz&lt;/td&gt;&lt;td&gt;Controladoria&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>62619</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;62619&lt;/td&gt;&lt;td&gt;Cátia Luz&lt;/td&gt;&lt;td&gt;Controladoria&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr class="table-active"&gt;&lt;td&gt;62619&lt;/td&gt;&lt;td&gt;Cátia Luz&lt;/td&gt;&lt;td&gt;Controladoria&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>62620</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;tr&gt;&lt;td&gt;62620&lt;/td&gt;&lt;td&gt;clecio&lt;/td&gt;&lt;td&gt;cpd&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;tr&gt;&lt;td&gt;62620&lt;/td&gt;&lt;td&gt;clecio&lt;/td&gt;&lt;td&gt;cpd&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>62621</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="str">
+        <f>"&lt;tr&gt;&lt;td&gt;"&amp;A13&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B13&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C13&amp;"&lt;/td&gt;&lt;/tr&gt;"</f>
+        <v>&lt;tr&gt;&lt;td&gt;62621&lt;/td&gt;&lt;td&gt;te2&lt;/td&gt;&lt;td&gt;cpd&lt;/td&gt;&lt;/tr&gt;</v>
+      </c>
+      <c r="E13" t="str">
+        <f>IF(ISEVEN(ROW(A13)),"&lt;tr&gt;&lt;td&gt;"&amp;A13&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B13&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C13&amp;"&lt;/td&gt;&lt;/tr&gt;","&lt;tr class=""table-active""&gt;&lt;td&gt;"&amp;A13&amp;"&lt;/td&gt;&lt;td&gt;"&amp;B13&amp;"&lt;/td&gt;&lt;td&gt;"&amp;C13&amp;"&lt;/td&gt;&lt;/tr&gt;")</f>
+        <v>&lt;tr class="table-active"&gt;&lt;td&gt;62621&lt;/td&gt;&lt;td&gt;te2&lt;/td&gt;&lt;td&gt;cpd&lt;/td&gt;&lt;/tr&gt;</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>